--- a/documents/BOM that you can use in digi-key.xlsx
+++ b/documents/BOM that you can use in digi-key.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Lampman\Documents\GitHub\ece411-pdx\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECAEFB-4D70-404A-87F7-47EA17F26A9D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89201E3E-5F0A-401C-AAC8-5BD0B979E3E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27090" windowHeight="9855" xr2:uid="{B2324D2B-A3B7-443A-8738-597B30616CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -693,7 +693,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
